--- a/Documents/逐舟歌数值设计表.xlsx
+++ b/Documents/逐舟歌数值设计表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SongOfBoat\B.O.A.T\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCCB81B-E340-4B2D-B2DB-892E6EB42988}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A07A25-F78B-47A1-83FC-DD1DC05E993A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-1680" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27936" yWindow="-948" windowWidth="17280" windowHeight="12444" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="属性投放表" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="237">
   <si>
     <t>逐舟歌数值表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -979,12 +979,124 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>五、技能配置表说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、Buff类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接作用属性类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派发型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正类buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击结算类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次施加效果，层数刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，进行结算，生效时层数-1，参数1派发buff1，参数2派发buff2，参数3派发buff3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到攻击时，进行结算，生效时层数-1，参数1派发buff1，参数2派发buff2，参数3派发buff3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到攻击时，进行结算，参数1发动几率，参数2作用属性，参数3减免的百分比值，参数4增加的百分比值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff初始层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个持续作用的Buff在最开始被叠加时的层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff消散规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到攻击时堆叠层数-1，为0时消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成攻击后堆叠层数-1，为0时消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以对怪物造成伤害值，参数1发动几率，参数2对目标作用的属性，参数3作用的攻击百分比值，参数4作用的生命百分比值，参数5作用的护盾百分比值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成群体的buff效果，参数1发动几率，参数2派发目标单体/全体，参数3派发的buff1，参数4派发的buff2，参数5派发的buff3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击结算类1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击结算类2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始结算类3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，堆叠层数-1，为0时消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff刷新规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新类1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叠加类2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1098,6 +1210,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1182,7 +1302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1286,6 +1406,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1570,9 +1693,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -2057,35 +2180,36 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="41" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="41" t="s">
         <v>126</v>
       </c>
+      <c r="E33" s="41"/>
     </row>
     <row r="34" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -2129,7 +2253,7 @@
         <v>62</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>128</v>
+        <v>216</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>130</v>
@@ -2217,10 +2341,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDAA628-4135-438D-A76B-078D7099409E}">
-  <dimension ref="A1:X65"/>
+  <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -3667,25 +3791,27 @@
       <c r="W53" s="7"/>
       <c r="X53" s="7"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
+    <row r="54" spans="1:24" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
       <c r="S54" s="7"/>
       <c r="T54" s="7"/>
       <c r="U54" s="7"/>
@@ -3721,7 +3847,9 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
+      <c r="B56" s="7" t="s">
+        <v>210</v>
+      </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
@@ -3774,9 +3902,13 @@
     <row r="58" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
+      <c r="C58" s="7" t="s">
+        <v>211</v>
+      </c>
       <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
+      <c r="E58" s="7" t="s">
+        <v>228</v>
+      </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
@@ -3826,9 +3958,13 @@
     <row r="60" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
+      <c r="C60" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
+      <c r="E60" s="7" t="s">
+        <v>229</v>
+      </c>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
@@ -3878,9 +4014,13 @@
     <row r="62" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
+      <c r="C62" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
+      <c r="E62" s="7" t="s">
+        <v>219</v>
+      </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -3930,9 +4070,13 @@
     <row r="64" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
+      <c r="C64" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
+      <c r="E64" s="7" t="s">
+        <v>217</v>
+      </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
@@ -3953,7 +4097,25 @@
       <c r="W64" s="7"/>
       <c r="X64" s="7"/>
     </row>
-    <row r="65" spans="19:24" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
       <c r="S65" s="7"/>
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
@@ -3961,12 +4123,904 @@
       <c r="W65" s="7"/>
       <c r="X65" s="7"/>
     </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="7"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="7"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="7"/>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="7"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="7"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
+      <c r="X74" s="7"/>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="7"/>
+      <c r="U76" s="7"/>
+      <c r="V76" s="7"/>
+      <c r="W76" s="7"/>
+      <c r="X76" s="7"/>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
+      <c r="W77" s="7"/>
+      <c r="X77" s="7"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="7"/>
+      <c r="U78" s="7"/>
+      <c r="V78" s="7"/>
+      <c r="W78" s="7"/>
+      <c r="X78" s="7"/>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A79" s="7"/>
+      <c r="C79" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7"/>
+      <c r="V80" s="7"/>
+      <c r="W80" s="7"/>
+      <c r="X80" s="7"/>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="7"/>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7"/>
+      <c r="V81" s="7"/>
+      <c r="W81" s="7"/>
+      <c r="X81" s="7"/>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="7"/>
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
+      <c r="W82" s="7"/>
+      <c r="X82" s="7"/>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
+      <c r="V83" s="7"/>
+      <c r="W83" s="7"/>
+      <c r="X83" s="7"/>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="7"/>
+      <c r="U84" s="7"/>
+      <c r="V84" s="7"/>
+      <c r="W84" s="7"/>
+      <c r="X84" s="7"/>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
+      <c r="W86" s="7"/>
+      <c r="X86" s="7"/>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+      <c r="X87" s="7"/>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+      <c r="W88" s="7"/>
+      <c r="X88" s="7"/>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="7"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
+      <c r="W89" s="7"/>
+      <c r="X89" s="7"/>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="7"/>
+      <c r="S90" s="7"/>
+      <c r="T90" s="7"/>
+      <c r="U90" s="7"/>
+      <c r="V90" s="7"/>
+      <c r="W90" s="7"/>
+      <c r="X90" s="7"/>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7"/>
+      <c r="S91" s="7"/>
+      <c r="T91" s="7"/>
+      <c r="U91" s="7"/>
+      <c r="V91" s="7"/>
+      <c r="W91" s="7"/>
+      <c r="X91" s="7"/>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="7"/>
+      <c r="T92" s="7"/>
+      <c r="U92" s="7"/>
+      <c r="V92" s="7"/>
+      <c r="W92" s="7"/>
+      <c r="X92" s="7"/>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="7"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
+      <c r="W93" s="7"/>
+      <c r="X93" s="7"/>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="7"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="7"/>
+      <c r="U94" s="7"/>
+      <c r="V94" s="7"/>
+      <c r="W94" s="7"/>
+      <c r="X94" s="7"/>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
+      <c r="S95" s="7"/>
+      <c r="T95" s="7"/>
+      <c r="U95" s="7"/>
+      <c r="V95" s="7"/>
+      <c r="W95" s="7"/>
+      <c r="X95" s="7"/>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="7"/>
+      <c r="T96" s="7"/>
+      <c r="U96" s="7"/>
+      <c r="V96" s="7"/>
+      <c r="W96" s="7"/>
+      <c r="X96" s="7"/>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7"/>
+      <c r="S97" s="7"/>
+      <c r="T97" s="7"/>
+      <c r="U97" s="7"/>
+      <c r="V97" s="7"/>
+      <c r="W97" s="7"/>
+      <c r="X97" s="7"/>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="7"/>
+      <c r="R98" s="7"/>
+      <c r="S98" s="7"/>
+      <c r="T98" s="7"/>
+      <c r="U98" s="7"/>
+      <c r="V98" s="7"/>
+      <c r="W98" s="7"/>
+      <c r="X98" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3974,7 +5028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D4E371-4C82-4BEE-91D5-C2C7CEA48108}">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -5561,8 +6615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85568F5-C04A-4C6E-B720-B3A3182EF725}">
   <dimension ref="A2:C13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -5704,7 +6758,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>

--- a/Documents/逐舟歌数值设计表.xlsx
+++ b/Documents/逐舟歌数值设计表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SongOfBoat\B.O.A.T\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A07A25-F78B-47A1-83FC-DD1DC05E993A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB771A8-2912-4096-9266-7FA5D6E7F59B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27936" yWindow="-948" windowWidth="17280" windowHeight="12444" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3924" yWindow="2400" windowWidth="18600" windowHeight="9072" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="属性投放表" sheetId="1" r:id="rId1"/>
@@ -1096,7 +1096,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1218,6 +1218,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1302,7 +1309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1396,6 +1403,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1408,9 +1418,7 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1694,7 +1702,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -1710,13 +1718,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1736,12 +1744,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1864,12 +1872,12 @@
     </row>
     <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:5" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
     </row>
     <row r="13" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2180,36 +2188,36 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="37" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="41"/>
+      <c r="E33" s="37"/>
     </row>
     <row r="34" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -2343,8 +2351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDAA628-4135-438D-A76B-078D7099409E}">
   <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -2357,26 +2365,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
@@ -4126,21 +4134,21 @@
     <row r="66" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7" t="s">
+      <c r="D66" s="42"/>
+      <c r="E66" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="42"/>
+      <c r="M66" s="42"/>
       <c r="N66" s="7"/>
       <c r="O66" s="7"/>
       <c r="P66" s="7"/>
@@ -5028,7 +5036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D4E371-4C82-4BEE-91D5-C2C7CEA48108}">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -5046,28 +5054,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
@@ -5261,22 +5269,22 @@
       <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:26" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
     </row>
     <row r="16" spans="1:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
@@ -6774,12 +6782,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6799,12 +6807,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -6944,12 +6952,12 @@
     </row>
     <row r="12" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:5" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
     </row>
     <row r="14" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">

--- a/Documents/逐舟歌数值设计表.xlsx
+++ b/Documents/逐舟歌数值设计表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SongOfBoat\B.O.A.T\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB771A8-2912-4096-9266-7FA5D6E7F59B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082C1481-B22C-4DC7-97F0-9DFB99C71BA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3924" yWindow="2400" windowWidth="18600" windowHeight="9072" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="属性投放表" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="套装效果设计表" sheetId="6" r:id="rId5"/>
     <sheet name="能力球刷新表" sheetId="2" r:id="rId6"/>
     <sheet name="属性投放表 (参考)" sheetId="7" r:id="rId7"/>
+    <sheet name="玩家数值规划表 (2)" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="237">
   <si>
     <t>逐舟歌数值表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1406,6 +1407,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1418,7 +1420,6 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1434,6 +1435,1804 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>玩家数值规划表!$N$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>战斗力</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>玩家数值规划表!$A$39:$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0符文</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1符文</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2符文</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3符文</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4符文</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>玩家数值规划表!$N$39:$N$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>64.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>185.17999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>251.30000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>317.33999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-21DA-4108-BEF6-D27E6536EC32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1767236943"/>
+        <c:axId val="1767237359"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1767236943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1767237359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1767237359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1767236943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'玩家数值规划表 (2)'!$N$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>战斗力</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'玩家数值规划表 (2)'!$A$39:$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0符文</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1符文</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2符文</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3符文</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4符文</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'玩家数值规划表 (2)'!$N$39:$N$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>21.566666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.576666666666668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.393333333333338</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.766666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105.77999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4308-4A21-A309-2AEE1CD66C84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1767236943"/>
+        <c:axId val="1767237359"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1767236943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1767237359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1767237359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1767236943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53788</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01B56FFA-B277-414B-BB69-F75F0D1D118A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53788</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F719FE9A-D815-4742-96F2-9A70CDBE0418}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1703,7 +3502,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -1718,13 +3517,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1744,12 +3543,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1872,12 +3671,12 @@
     </row>
     <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:5" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
     </row>
     <row r="13" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2343,7 +4142,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2351,8 +4150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDAA628-4135-438D-A76B-078D7099409E}">
   <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -2365,26 +4164,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
@@ -4134,21 +5933,21 @@
     <row r="66" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
-      <c r="C66" s="42" t="s">
+      <c r="C66" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="D66" s="42"/>
-      <c r="E66" s="42" t="s">
+      <c r="D66" s="38"/>
+      <c r="E66" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="F66" s="42"/>
-      <c r="G66" s="42"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="42"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="42"/>
-      <c r="L66" s="42"/>
-      <c r="M66" s="42"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="38"/>
+      <c r="M66" s="38"/>
       <c r="N66" s="7"/>
       <c r="O66" s="7"/>
       <c r="P66" s="7"/>
@@ -5036,8 +6835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D4E371-4C82-4BEE-91D5-C2C7CEA48108}">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5045,7 +6844,7 @@
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="10.21875" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
     <col min="9" max="9" width="10.44140625" customWidth="1"/>
     <col min="10" max="11" width="13.21875" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" customWidth="1"/>
@@ -5054,28 +6853,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
@@ -5152,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10" s="28">
         <v>3</v>
@@ -5183,7 +6982,7 @@
         <v>167</v>
       </c>
       <c r="B11" s="28">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C11" s="28">
         <v>0</v>
@@ -5195,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="29">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="G11" s="28">
         <v>0</v>
@@ -5224,22 +7023,22 @@
         <v>0</v>
       </c>
       <c r="D12" s="28">
-        <f>B12*3</f>
-        <v>3</v>
+        <f>B12</f>
+        <v>1</v>
       </c>
       <c r="E12" s="28" t="s">
         <v>189</v>
       </c>
       <c r="F12" s="28">
         <f>1.4 * D12</f>
-        <v>4.1999999999999993</v>
+        <v>1.4</v>
       </c>
       <c r="G12" s="28">
         <v>0</v>
       </c>
       <c r="H12" s="28" t="str">
-        <f>"玩家血量"</f>
-        <v>玩家血量</v>
+        <f>"基于玩家血量"</f>
+        <v>基于玩家血量</v>
       </c>
       <c r="I12" s="28">
         <v>0</v>
@@ -5269,22 +7068,22 @@
       <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:26" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
     </row>
     <row r="16" spans="1:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
@@ -5347,11 +7146,10 @@
       </c>
       <c r="D17" s="15">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E17" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17" s="15">
         <f t="shared" si="0"/>
@@ -5379,21 +7177,21 @@
       </c>
       <c r="L17" s="15">
         <f xml:space="preserve"> B17 / ((D17*(1-G17-I17) + D17*(G17)*1.5) * E17)</f>
-        <v>2.8005895978100654</v>
+        <v>6.3013265950726467</v>
       </c>
       <c r="M17" s="15">
         <v>1</v>
       </c>
       <c r="N17" s="15">
-        <f xml:space="preserve"> (B17*$B$12 + D17*$D$12 + F17*$F$12 + H17*B17*0.01 ) * E17/3 * (1+ J17) * (1+K17)</f>
-        <v>83.1</v>
+        <f xml:space="preserve"> (B17*$B$12 + D17*$D$12 + F17*$F$12 + H17*B17*0.01 ) * E17 * (1+ J17) * (1+K17)</f>
+        <v>64.7</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
       <c r="B18" s="13">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C18" s="13">
         <f t="shared" si="0"/>
@@ -5401,19 +7199,18 @@
       </c>
       <c r="D18" s="13">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E18" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="E18" s="15">
+        <v>1</v>
       </c>
       <c r="F18" s="13">
         <f t="shared" si="0"/>
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="G18" s="13">
         <f t="shared" si="1"/>
-        <v>0.10941475826972011</v>
+        <v>9.5607235142118857E-2</v>
       </c>
       <c r="H18" s="13">
         <f t="shared" si="2"/>
@@ -5433,14 +7230,14 @@
       </c>
       <c r="L18" s="13">
         <f t="shared" ref="L18:L32" si="5" xml:space="preserve"> B18 / ((D18*(1-G18-I18) + D18*(G18)*1.5) * E18)</f>
-        <v>2.6598184912763947</v>
+        <v>6.9188411323005772</v>
       </c>
       <c r="M18" s="13">
         <v>2</v>
       </c>
-      <c r="N18" s="14">
-        <f t="shared" ref="N18:N33" si="6" xml:space="preserve"> (B18*$B$12 + D18*$D$12 + F18*$F$12 + H18*B18*0.01 ) * E18/3 * (1+ J18) * (1+K18)</f>
-        <v>98.14</v>
+      <c r="N18" s="15">
+        <f t="shared" ref="N18:N33" si="6" xml:space="preserve"> (B18*$B$12 + D18*$D$12 + F18*$F$12 + H18*B18*0.01 ) * E18 * (1+ J18) * (1+K18)</f>
+        <v>79.59</v>
       </c>
       <c r="O18" s="8" t="s">
         <v>182</v>
@@ -5450,7 +7247,7 @@
       <c r="A19" s="16"/>
       <c r="B19" s="13">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C19" s="13">
         <f t="shared" si="0"/>
@@ -5458,19 +7255,18 @@
       </c>
       <c r="D19" s="13">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E19" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="E19" s="15">
+        <v>1</v>
       </c>
       <c r="F19" s="13">
         <f t="shared" si="0"/>
-        <v>5.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G19" s="13">
         <f t="shared" si="1"/>
-        <v>0.13793103448275862</v>
+        <v>0.11167512690355332</v>
       </c>
       <c r="H19" s="13">
         <f t="shared" si="2"/>
@@ -5490,14 +7286,14 @@
       </c>
       <c r="L19" s="13">
         <f t="shared" si="5"/>
-        <v>2.5517887746358183</v>
+        <v>7.4056743026933765</v>
       </c>
       <c r="M19" s="13">
         <v>3</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N19" s="15">
         <f t="shared" si="6"/>
-        <v>113.24</v>
+        <v>94.6</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
@@ -5506,26 +7302,25 @@
       </c>
       <c r="B20" s="15">
         <f t="shared" ref="B20:C33" si="7">B$10+B$11*($M20-1)</f>
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C20" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D20" s="15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E20" s="15">
-        <f t="shared" ref="E20:F33" si="8">E$10+E$11*($M20-1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" si="8"/>
-        <v>6.9</v>
+        <f t="shared" ref="F20:F33" si="8">F$10+F$11*($M20-1)</f>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G20" s="15">
         <f t="shared" si="1"/>
-        <v>0.16467780429594273</v>
+        <v>0.12718204488778054</v>
       </c>
       <c r="H20" s="15">
         <f t="shared" si="2"/>
@@ -5545,14 +7340,14 @@
       </c>
       <c r="L20" s="15">
         <f t="shared" si="5"/>
-        <v>2.465978290616107</v>
+        <v>7.7982327021757607</v>
       </c>
       <c r="M20" s="15">
         <v>4</v>
       </c>
       <c r="N20" s="15">
         <f t="shared" si="6"/>
-        <v>128.39999999999998</v>
+        <v>109.73</v>
       </c>
       <c r="O20" s="20" t="s">
         <v>183</v>
@@ -5562,7 +7357,7 @@
       <c r="A21" s="15"/>
       <c r="B21" s="14">
         <f t="shared" si="7"/>
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="C21" s="14">
         <f t="shared" si="7"/>
@@ -5570,19 +7365,18 @@
       </c>
       <c r="D21" s="14">
         <f>D$10+D$11*($M21-1)</f>
-        <v>10</v>
-      </c>
-      <c r="E21" s="14">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="E21" s="15">
+        <v>1</v>
       </c>
       <c r="F21" s="14">
         <f t="shared" si="8"/>
-        <v>8.1999999999999993</v>
+        <v>5.8</v>
       </c>
       <c r="G21" s="14">
         <f t="shared" si="1"/>
-        <v>0.1898148148148148</v>
+        <v>0.14215686274509803</v>
       </c>
       <c r="H21" s="14">
         <f t="shared" si="2"/>
@@ -5602,21 +7396,21 @@
       </c>
       <c r="L21" s="13">
         <f t="shared" si="5"/>
-        <v>2.3960157185786031</v>
+        <v>8.1207206796802041</v>
       </c>
       <c r="M21" s="14">
         <v>5</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N21" s="15">
         <f t="shared" si="6"/>
-        <v>143.62</v>
+        <v>124.98</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="13">
         <f t="shared" si="7"/>
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C22" s="13">
         <f t="shared" si="7"/>
@@ -5624,19 +7418,18 @@
       </c>
       <c r="D22" s="13">
         <f>D$10+D$11*($M22-1)</f>
-        <v>11</v>
-      </c>
-      <c r="E22" s="13">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="E22" s="15">
+        <v>1</v>
       </c>
       <c r="F22" s="13">
         <f t="shared" si="8"/>
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="G22" s="13">
         <f t="shared" si="1"/>
-        <v>0.21348314606741572</v>
+        <v>0.15662650602409639</v>
       </c>
       <c r="H22" s="13">
         <f t="shared" si="2"/>
@@ -5656,21 +7449,21 @@
       </c>
       <c r="L22" s="13">
         <f t="shared" si="5"/>
-        <v>2.3378041470519735</v>
+        <v>8.3898404692959492</v>
       </c>
       <c r="M22" s="13">
         <v>6</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N22" s="15">
         <f t="shared" si="6"/>
-        <v>158.89999999999998</v>
+        <v>140.35</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="13">
         <f t="shared" si="7"/>
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="C23" s="13">
         <f t="shared" si="7"/>
@@ -5678,19 +7471,18 @@
       </c>
       <c r="D23" s="13">
         <f>D$10+D$11*($M23-1)</f>
-        <v>12</v>
-      </c>
-      <c r="E23" s="13">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="E23" s="15">
+        <v>1</v>
       </c>
       <c r="F23" s="13">
         <f t="shared" si="8"/>
-        <v>10.8</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="G23" s="13">
         <f t="shared" si="1"/>
-        <v>0.23580786026200876</v>
+        <v>0.17061611374407581</v>
       </c>
       <c r="H23" s="13">
         <f t="shared" si="2"/>
@@ -5710,21 +7502,21 @@
       </c>
       <c r="L23" s="13">
         <f t="shared" si="5"/>
-        <v>2.288580725131701</v>
+        <v>8.617477124507154</v>
       </c>
       <c r="M23" s="13">
         <v>7</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N23" s="15">
         <f t="shared" si="6"/>
-        <v>174.23999999999998</v>
+        <v>155.83999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="13">
         <f t="shared" si="7"/>
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="C24" s="13">
         <f t="shared" si="7"/>
@@ -5732,19 +7524,18 @@
       </c>
       <c r="D24" s="13">
         <f>D$10+D$11*($M24-1)</f>
-        <v>13</v>
-      </c>
-      <c r="E24" s="13">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="E24" s="15">
+        <v>1</v>
       </c>
       <c r="F24" s="13">
         <f t="shared" si="8"/>
-        <v>12.1</v>
+        <v>7.8999999999999995</v>
       </c>
       <c r="G24" s="13">
         <f t="shared" si="1"/>
-        <v>0.25690021231422505</v>
+        <v>0.18414918414918413</v>
       </c>
       <c r="H24" s="13">
         <f t="shared" si="2"/>
@@ -5764,14 +7555,14 @@
       </c>
       <c r="L24" s="13">
         <f t="shared" si="5"/>
-        <v>2.2464088504702131</v>
+        <v>8.8123088008561901</v>
       </c>
       <c r="M24" s="13">
         <v>8</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N24" s="15">
         <f t="shared" si="6"/>
-        <v>189.64</v>
+        <v>171.45</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
@@ -5780,26 +7571,25 @@
       </c>
       <c r="B25" s="15">
         <f t="shared" si="7"/>
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="C25" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D25" s="15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E25" s="15">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25" s="15">
         <f t="shared" si="8"/>
-        <v>13.4</v>
+        <v>8.6</v>
       </c>
       <c r="G25" s="15">
         <f t="shared" si="1"/>
-        <v>0.27685950413223143</v>
+        <v>0.19724770642201833</v>
       </c>
       <c r="H25" s="15">
         <f t="shared" si="2"/>
@@ -5819,21 +7609,21 @@
       </c>
       <c r="L25" s="15">
         <f t="shared" si="5"/>
-        <v>2.2098869600081388</v>
+        <v>8.9808126410835225</v>
       </c>
       <c r="M25" s="15">
         <v>9</v>
       </c>
       <c r="N25" s="15">
         <f t="shared" si="6"/>
-        <v>205.1</v>
+        <v>187.18</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="14">
         <f t="shared" si="7"/>
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="C26" s="14">
         <f t="shared" si="7"/>
@@ -5841,19 +7631,18 @@
       </c>
       <c r="D26" s="14">
         <f t="shared" ref="D26:D33" si="9">D$10+D$11*($M26-1)</f>
-        <v>15</v>
-      </c>
-      <c r="E26" s="14">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="E26" s="15">
+        <v>1</v>
       </c>
       <c r="F26" s="14">
         <f t="shared" si="8"/>
-        <v>14.700000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="G26" s="14">
         <f t="shared" si="1"/>
-        <v>0.29577464788732394</v>
+        <v>0.20993227990970659</v>
       </c>
       <c r="H26" s="14">
         <f t="shared" si="2"/>
@@ -5873,21 +7662,21 @@
       </c>
       <c r="L26" s="13">
         <f t="shared" si="5"/>
-        <v>2.1779730698910069</v>
+        <v>9.1279152061296269</v>
       </c>
       <c r="M26" s="14">
         <v>10</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N26" s="15">
         <f t="shared" si="6"/>
-        <v>220.62</v>
+        <v>203.03</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="13">
         <f t="shared" si="7"/>
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="C27" s="13">
         <f t="shared" si="7"/>
@@ -5895,19 +7684,18 @@
       </c>
       <c r="D27" s="13">
         <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="E27" s="13">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="E27" s="15">
+        <v>1</v>
       </c>
       <c r="F27" s="13">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G27" s="13">
         <f t="shared" si="1"/>
-        <v>0.31372549019607843</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="H27" s="13">
         <f t="shared" si="2"/>
@@ -5927,21 +7715,21 @@
       </c>
       <c r="L27" s="13">
         <f t="shared" si="5"/>
-        <v>2.1498745819397995</v>
+        <v>9.2574257425742577</v>
       </c>
       <c r="M27" s="13">
         <v>11</v>
       </c>
-      <c r="N27" s="14">
+      <c r="N27" s="15">
         <f t="shared" si="6"/>
-        <v>236.19999999999996</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="13">
         <f t="shared" si="7"/>
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="C28" s="13">
         <f t="shared" si="7"/>
@@ -5949,19 +7737,18 @@
       </c>
       <c r="D28" s="13">
         <f t="shared" si="9"/>
-        <v>17</v>
-      </c>
-      <c r="E28" s="13">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="E28" s="15">
+        <v>1</v>
       </c>
       <c r="F28" s="13">
         <f t="shared" si="8"/>
-        <v>17.3</v>
+        <v>10.7</v>
       </c>
       <c r="G28" s="13">
         <f t="shared" si="1"/>
-        <v>0.33078393881453155</v>
+        <v>0.23413566739606123</v>
       </c>
       <c r="H28" s="13">
         <f t="shared" si="2"/>
@@ -5981,14 +7768,14 @@
       </c>
       <c r="L28" s="13">
         <f t="shared" si="5"/>
-        <v>2.1249765929901563</v>
+        <v>9.3723323406823162</v>
       </c>
       <c r="M28" s="13">
         <v>12</v>
       </c>
-      <c r="N28" s="14">
+      <c r="N28" s="15">
         <f t="shared" si="6"/>
-        <v>251.84</v>
+        <v>235.08999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
@@ -5997,7 +7784,7 @@
       </c>
       <c r="B29" s="15">
         <f t="shared" si="7"/>
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="C29" s="15">
         <f t="shared" si="7"/>
@@ -6005,19 +7792,18 @@
       </c>
       <c r="D29" s="15">
         <f t="shared" si="9"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E29" s="15">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" s="15">
         <f t="shared" si="8"/>
-        <v>18.600000000000001</v>
+        <v>11.399999999999999</v>
       </c>
       <c r="G29" s="15">
         <f t="shared" si="1"/>
-        <v>0.34701492537313433</v>
+        <v>0.24568965517241376</v>
       </c>
       <c r="H29" s="15">
         <f t="shared" si="2"/>
@@ -6037,21 +7823,21 @@
       </c>
       <c r="L29" s="15">
         <f t="shared" si="5"/>
-        <v>2.1027938126947872</v>
+        <v>9.4750090086672856</v>
       </c>
       <c r="M29" s="15">
         <v>13</v>
       </c>
       <c r="N29" s="15">
         <f t="shared" si="6"/>
-        <v>267.54000000000002</v>
+        <v>251.3</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="13">
         <f t="shared" si="7"/>
-        <v>128</v>
+        <v>206</v>
       </c>
       <c r="C30" s="13">
         <f t="shared" si="7"/>
@@ -6059,19 +7845,18 @@
       </c>
       <c r="D30" s="13">
         <f t="shared" si="9"/>
-        <v>19</v>
-      </c>
-      <c r="E30" s="13">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="E30" s="15">
+        <v>1</v>
       </c>
       <c r="F30" s="13">
         <f t="shared" si="8"/>
-        <v>19.900000000000002</v>
+        <v>12.1</v>
       </c>
       <c r="G30" s="13">
         <f t="shared" si="1"/>
-        <v>0.36247723132969034</v>
+        <v>0.25690021231422505</v>
       </c>
       <c r="H30" s="13">
         <f t="shared" si="2"/>
@@ -6091,21 +7876,21 @@
       </c>
       <c r="L30" s="13">
         <f t="shared" si="5"/>
-        <v>2.0829374488965642</v>
+        <v>9.5673633878784692</v>
       </c>
       <c r="M30" s="13">
         <v>14</v>
       </c>
-      <c r="N30" s="14">
+      <c r="N30" s="15">
         <f t="shared" si="6"/>
-        <v>283.3</v>
+        <v>267.63</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="14">
         <f t="shared" si="7"/>
-        <v>134</v>
+        <v>218</v>
       </c>
       <c r="C31" s="14">
         <f t="shared" si="7"/>
@@ -6113,19 +7898,18 @@
       </c>
       <c r="D31" s="14">
         <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="E31" s="14">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <v>22</v>
+      </c>
+      <c r="E31" s="15">
+        <v>1</v>
       </c>
       <c r="F31" s="14">
         <f t="shared" si="8"/>
-        <v>21.2</v>
+        <v>12.799999999999999</v>
       </c>
       <c r="G31" s="14">
         <f t="shared" si="1"/>
-        <v>0.37722419928825618</v>
+        <v>0.26778242677824265</v>
       </c>
       <c r="H31" s="14">
         <f t="shared" si="2"/>
@@ -6145,21 +7929,21 @@
       </c>
       <c r="L31" s="13">
         <f t="shared" si="5"/>
-        <v>2.0650918635170603</v>
+        <v>9.6509440203225676</v>
       </c>
       <c r="M31" s="14">
         <v>15</v>
       </c>
-      <c r="N31" s="14">
+      <c r="N31" s="15">
         <f t="shared" si="6"/>
-        <v>299.11999999999995</v>
+        <v>284.08000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="14">
         <f t="shared" si="7"/>
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="C32" s="14">
         <f t="shared" si="7"/>
@@ -6167,19 +7951,18 @@
       </c>
       <c r="D32" s="14">
         <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="E32" s="14">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <v>23</v>
+      </c>
+      <c r="E32" s="15">
+        <v>1</v>
       </c>
       <c r="F32" s="14">
         <f t="shared" si="8"/>
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G32" s="14">
         <f t="shared" si="1"/>
-        <v>0.39130434782608697</v>
+        <v>0.27835051546391754</v>
       </c>
       <c r="H32" s="14">
         <f t="shared" si="2"/>
@@ -6199,14 +7982,14 @@
       </c>
       <c r="L32" s="13">
         <f t="shared" si="5"/>
-        <v>2.0489977728285078</v>
+        <v>9.7270194986072411</v>
       </c>
       <c r="M32" s="14">
         <v>16</v>
       </c>
-      <c r="N32" s="14">
+      <c r="N32" s="15">
         <f t="shared" si="6"/>
-        <v>315</v>
+        <v>300.64999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
@@ -6215,7 +7998,7 @@
       </c>
       <c r="B33" s="15">
         <f t="shared" si="7"/>
-        <v>146</v>
+        <v>242</v>
       </c>
       <c r="C33" s="15">
         <f t="shared" si="7"/>
@@ -6223,19 +8006,18 @@
       </c>
       <c r="D33" s="15">
         <f t="shared" si="9"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E33" s="15">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33" s="15">
         <f t="shared" si="8"/>
-        <v>23.8</v>
+        <v>14.2</v>
       </c>
       <c r="G33" s="15">
         <f t="shared" si="1"/>
-        <v>0.40476190476190477</v>
+        <v>0.28861788617886175</v>
       </c>
       <c r="H33" s="15">
         <f t="shared" si="2"/>
@@ -6255,14 +8037,14 @@
       </c>
       <c r="L33" s="15">
         <f xml:space="preserve"> B33 / ((D33*(1-G33-I33) + D33*(G33)*1.5) * E33)</f>
-        <v>2.0344399327056046</v>
+        <v>9.7966377156038646</v>
       </c>
       <c r="M33" s="15">
         <v>17</v>
       </c>
       <c r="N33" s="15">
         <f t="shared" si="6"/>
-        <v>330.94</v>
+        <v>317.33999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="23.4" x14ac:dyDescent="0.25">
@@ -6341,7 +8123,7 @@
       </c>
       <c r="D39" s="21">
         <f>D$10+D$11*($M39-1)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E39" s="21">
         <f>E$10+E$11*($M39-1)</f>
@@ -6373,14 +8155,14 @@
       </c>
       <c r="L39" s="21">
         <f xml:space="preserve"> B39 / ((D39*(1-G39-I39) + D39*(G39)*1.5) * E39)</f>
-        <v>2.8005895978100654</v>
+        <v>2.1004421983575492</v>
       </c>
       <c r="M39" s="21">
         <v>1</v>
       </c>
       <c r="N39" s="26">
         <f xml:space="preserve"> (B39*$B$12 + D39*$D$12 + F39*$F$12 + H39*B39*0.01 ) * E39/3 * (1+ J39) * (1+K39)</f>
-        <v>83.1</v>
+        <v>64.7</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
@@ -6389,7 +8171,7 @@
       </c>
       <c r="B40" s="21">
         <f t="shared" ref="B40:C43" si="11">B$10+B$11*($M40-1)</f>
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="C40" s="21">
         <f t="shared" si="11"/>
@@ -6404,19 +8186,19 @@
       </c>
       <c r="F40" s="21">
         <f t="shared" si="12"/>
-        <v>6.9</v>
+        <v>5.8</v>
       </c>
       <c r="G40" s="21">
         <f>F40/(F40+35)</f>
-        <v>0.16467780429594273</v>
+        <v>0.14215686274509803</v>
       </c>
       <c r="H40" s="21">
         <f>H$10+H$11*($M40-1)</f>
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I40" s="21">
         <f t="shared" ref="I40:I43" si="13">H40/(H40+100)</f>
-        <v>6.1032863849765258E-2</v>
+        <v>6.5420560747663545E-2</v>
       </c>
       <c r="J40" s="21">
         <f t="shared" si="10"/>
@@ -6428,14 +8210,14 @@
       </c>
       <c r="L40" s="21">
         <f t="shared" ref="L40:L43" si="14" xml:space="preserve"> B40 / ((D40*(1-G40-I40) + D40*(G40)*1.5) * E40)</f>
-        <v>2.465978290616107</v>
+        <v>3.6092091909689796</v>
       </c>
       <c r="M40" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N40" s="26">
         <f t="shared" ref="N40:N43" si="15" xml:space="preserve"> (B40*$B$12 + D40*$D$12 + F40*$F$12 + H40*B40*0.01 ) * E40/3 * (1+ J40) * (1+K40)</f>
-        <v>128.39999999999998</v>
+        <v>121.98</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
@@ -6444,7 +8226,7 @@
       </c>
       <c r="B41" s="21">
         <f t="shared" si="11"/>
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="C41" s="21">
         <f t="shared" si="11"/>
@@ -6459,11 +8241,11 @@
       </c>
       <c r="F41" s="21">
         <f t="shared" si="12"/>
-        <v>13.4</v>
+        <v>8.6</v>
       </c>
       <c r="G41" s="21">
         <f>F41/(F41+35)</f>
-        <v>0.27685950413223143</v>
+        <v>0.19724770642201833</v>
       </c>
       <c r="H41" s="21">
         <f>H$10+H$11*($M41-1)</f>
@@ -6483,14 +8265,14 @@
       </c>
       <c r="L41" s="21">
         <f t="shared" si="14"/>
-        <v>2.2098869600081388</v>
+        <v>3.4212619585080088</v>
       </c>
       <c r="M41" s="21">
         <v>9</v>
       </c>
       <c r="N41" s="26">
         <f t="shared" si="15"/>
-        <v>205.1</v>
+        <v>185.17999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
@@ -6499,7 +8281,7 @@
       </c>
       <c r="B42" s="21">
         <f t="shared" si="11"/>
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="C42" s="21">
         <f t="shared" si="11"/>
@@ -6507,7 +8289,7 @@
       </c>
       <c r="D42" s="21">
         <f>D$10+D$11*($M42-1)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E42" s="21">
         <f t="shared" si="12"/>
@@ -6515,11 +8297,11 @@
       </c>
       <c r="F42" s="21">
         <f t="shared" si="12"/>
-        <v>18.600000000000001</v>
+        <v>11.399999999999999</v>
       </c>
       <c r="G42" s="21">
         <f>F42/(F42+35)</f>
-        <v>0.34701492537313433</v>
+        <v>0.24568965517241376</v>
       </c>
       <c r="H42" s="21">
         <f>H$10+H$11*($M42-1)</f>
@@ -6539,14 +8321,14 @@
       </c>
       <c r="L42" s="21">
         <f t="shared" si="14"/>
-        <v>2.1027938126947872</v>
+        <v>3.1583363362224284</v>
       </c>
       <c r="M42" s="21">
         <v>13</v>
       </c>
       <c r="N42" s="26">
         <f t="shared" si="15"/>
-        <v>267.54000000000002</v>
+        <v>251.30000000000004</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
@@ -6555,7 +8337,7 @@
       </c>
       <c r="B43" s="21">
         <f t="shared" si="11"/>
-        <v>146</v>
+        <v>242</v>
       </c>
       <c r="C43" s="21">
         <f t="shared" si="11"/>
@@ -6563,7 +8345,7 @@
       </c>
       <c r="D43" s="21">
         <f>D$10+D$11*($M43-1)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E43" s="21">
         <f t="shared" si="12"/>
@@ -6571,11 +8353,11 @@
       </c>
       <c r="F43" s="21">
         <f t="shared" si="12"/>
-        <v>23.8</v>
+        <v>14.2</v>
       </c>
       <c r="G43" s="21">
         <f>F43/(F43+35)</f>
-        <v>0.40476190476190477</v>
+        <v>0.28861788617886175</v>
       </c>
       <c r="H43" s="21">
         <f>H$10+H$11*($M43-1)</f>
@@ -6595,14 +8377,14 @@
       </c>
       <c r="L43" s="21">
         <f t="shared" si="14"/>
-        <v>2.0344399327056046</v>
+        <v>3.2655459052012881</v>
       </c>
       <c r="M43" s="21">
         <v>17</v>
       </c>
       <c r="N43" s="26">
         <f t="shared" si="15"/>
-        <v>330.94</v>
+        <v>317.33999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -6616,6 +8398,7 @@
   <ignoredErrors>
     <ignoredError sqref="I17:I33 G17:G33 G39:G43 I39:I43" formula="1"/>
   </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6624,7 +8407,7 @@
   <dimension ref="A2:C13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -6782,12 +8565,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6807,12 +8590,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -6952,12 +8735,12 @@
     </row>
     <row r="12" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:5" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
     </row>
     <row r="14" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -7438,4 +9221,1968 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756E63F6-BEF3-4E8A-A2E1-DDF8239C1A22}">
+  <dimension ref="A1:AN43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N43" sqref="A37:N43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="10" max="11" width="13.21875" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" customWidth="1"/>
+    <col min="27" max="27" width="16" customWidth="1"/>
+    <col min="33" max="33" width="14.44140625" customWidth="1"/>
+    <col min="35" max="35" width="14.6640625" customWidth="1"/>
+    <col min="36" max="36" width="11.88671875" customWidth="1"/>
+    <col min="37" max="37" width="11.44140625" customWidth="1"/>
+    <col min="39" max="39" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+    </row>
+    <row r="3" spans="1:36" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="AA7" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB7" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD7" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE7" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF7" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG7" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH7" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI7" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ7" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="AA8" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB8" s="26">
+        <v>50</v>
+      </c>
+      <c r="AC8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="26">
+        <v>8</v>
+      </c>
+      <c r="AE8" s="26">
+        <v>3</v>
+      </c>
+      <c r="AF8" s="28">
+        <f>AE8/(AE8+35)</f>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="AG8" s="26">
+        <v>5</v>
+      </c>
+      <c r="AH8" s="28">
+        <f>AG8/(AG8+100)</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="AI8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA9" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB9" s="28">
+        <v>12</v>
+      </c>
+      <c r="AC9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="29">
+        <v>0.7</v>
+      </c>
+      <c r="AF9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="AH9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="26">
+        <v>50</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0</v>
+      </c>
+      <c r="D10" s="26">
+        <v>8</v>
+      </c>
+      <c r="E10" s="28">
+        <v>3</v>
+      </c>
+      <c r="F10" s="26">
+        <v>3</v>
+      </c>
+      <c r="G10" s="28">
+        <f>F10/(F10+35)</f>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H10" s="26">
+        <v>5</v>
+      </c>
+      <c r="I10" s="28">
+        <f>H10/(H10+100)</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="J10" s="28">
+        <v>0</v>
+      </c>
+      <c r="K10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB10" s="28">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="28">
+        <f>AB10</f>
+        <v>1</v>
+      </c>
+      <c r="AE10" s="28">
+        <f>1.4 * AD10</f>
+        <v>1.4</v>
+      </c>
+      <c r="AF10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="28" t="str">
+        <f>"基于玩家血量"</f>
+        <v>基于玩家血量</v>
+      </c>
+      <c r="AH10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ10" s="28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="28">
+        <v>12</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0</v>
+      </c>
+      <c r="D11" s="28">
+        <v>1</v>
+      </c>
+      <c r="E11" s="28">
+        <v>0</v>
+      </c>
+      <c r="F11" s="29">
+        <v>0.7</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0</v>
+      </c>
+      <c r="H11" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="28">
+        <v>0</v>
+      </c>
+      <c r="J11" s="28">
+        <v>0</v>
+      </c>
+      <c r="K11" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="28">
+        <v>1</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0</v>
+      </c>
+      <c r="D12" s="28">
+        <f>B12</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="F12" s="28">
+        <f>1.4 * D12</f>
+        <v>1.4</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0</v>
+      </c>
+      <c r="H12" s="28" t="str">
+        <f>"基于玩家血量"</f>
+        <v>基于玩家血量</v>
+      </c>
+      <c r="I12" s="28">
+        <v>0</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+    </row>
+    <row r="14" spans="1:36" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:36" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+    </row>
+    <row r="16" spans="1:36" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="M16" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="N16" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="O16" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="15">
+        <f t="shared" ref="B17:F32" si="0">B$10+B$11*($M17-1)</f>
+        <v>50</v>
+      </c>
+      <c r="C17" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G17" s="15">
+        <f t="shared" ref="G17:G33" si="1">F17/(F17+35)</f>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H17" s="15">
+        <f t="shared" ref="H17:H33" si="2">H$10+H$11*($M17-1)</f>
+        <v>5</v>
+      </c>
+      <c r="I17" s="15">
+        <f>H17/(H17+100)</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="J17" s="15">
+        <f t="shared" ref="J17:K33" si="3">J$10+J$11*($M17-1)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="15">
+        <f xml:space="preserve"> B17 / ((D17*(1-G17-I17) + D17*(G17)*1.5) * E17)</f>
+        <v>6.3013265950726467</v>
+      </c>
+      <c r="M17" s="15">
+        <v>1</v>
+      </c>
+      <c r="N17" s="15">
+        <f xml:space="preserve"> (B17*$B$12 + D17*$D$12 + F17*$F$12 + H17*B17*0.01 ) * E17 * (1+ J17) * (1+K17)</f>
+        <v>64.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A18" s="16"/>
+      <c r="B18" s="13">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="C18" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E18" s="13">
+        <v>1</v>
+      </c>
+      <c r="F18" s="13">
+        <f t="shared" si="0"/>
+        <v>3.7</v>
+      </c>
+      <c r="G18" s="13">
+        <f t="shared" si="1"/>
+        <v>9.5607235142118857E-2</v>
+      </c>
+      <c r="H18" s="13">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="I18" s="14">
+        <f t="shared" ref="I18:I33" si="4">H18/(H18+100)</f>
+        <v>5.2132701421800945E-2</v>
+      </c>
+      <c r="J18" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="13">
+        <f t="shared" ref="L18:L32" si="5" xml:space="preserve"> B18 / ((D18*(1-G18-I18) + D18*(G18)*1.5) * E18)</f>
+        <v>6.9188411323005772</v>
+      </c>
+      <c r="M18" s="13">
+        <v>2</v>
+      </c>
+      <c r="N18" s="13">
+        <f t="shared" ref="N18:N33" si="6" xml:space="preserve"> (B18*$B$12 + D18*$D$12 + F18*$F$12 + H18*B18*0.01 ) * E18 * (1+ J18) * (1+K18)</f>
+        <v>79.59</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="13">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="C19" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G19" s="13">
+        <f t="shared" si="1"/>
+        <v>0.11167512690355332</v>
+      </c>
+      <c r="H19" s="13">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I19" s="14">
+        <f t="shared" si="4"/>
+        <v>5.6603773584905662E-2</v>
+      </c>
+      <c r="J19" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="13">
+        <f t="shared" si="5"/>
+        <v>7.4056743026933765</v>
+      </c>
+      <c r="M19" s="13">
+        <v>3</v>
+      </c>
+      <c r="N19" s="13">
+        <f t="shared" si="6"/>
+        <v>94.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" s="15">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="C20" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="15">
+        <v>11</v>
+      </c>
+      <c r="E20" s="15">
+        <v>1</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G20" s="15">
+        <f t="shared" si="1"/>
+        <v>0.12718204488778054</v>
+      </c>
+      <c r="H20" s="15">
+        <f t="shared" si="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" si="4"/>
+        <v>6.1032863849765258E-2</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <f t="shared" si="5"/>
+        <v>7.7982327021757607</v>
+      </c>
+      <c r="M20" s="15">
+        <v>4</v>
+      </c>
+      <c r="N20" s="15">
+        <f t="shared" si="6"/>
+        <v>109.73</v>
+      </c>
+      <c r="O20" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="14">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="C21" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="14">
+        <f>D$10+D$11*($M21-1)</f>
+        <v>12</v>
+      </c>
+      <c r="E21" s="13">
+        <v>1</v>
+      </c>
+      <c r="F21" s="14">
+        <f t="shared" si="0"/>
+        <v>5.8</v>
+      </c>
+      <c r="G21" s="14">
+        <f t="shared" si="1"/>
+        <v>0.14215686274509803</v>
+      </c>
+      <c r="H21" s="14">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I21" s="14">
+        <f t="shared" si="4"/>
+        <v>6.5420560747663545E-2</v>
+      </c>
+      <c r="J21" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="13">
+        <f t="shared" si="5"/>
+        <v>8.1207206796802041</v>
+      </c>
+      <c r="M21" s="14">
+        <v>5</v>
+      </c>
+      <c r="N21" s="13">
+        <f t="shared" si="6"/>
+        <v>124.98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="13">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="C22" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="13">
+        <f>D$10+D$11*($M22-1)</f>
+        <v>13</v>
+      </c>
+      <c r="E22" s="13">
+        <v>1</v>
+      </c>
+      <c r="F22" s="13">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="G22" s="13">
+        <f t="shared" si="1"/>
+        <v>0.15662650602409639</v>
+      </c>
+      <c r="H22" s="13">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="I22" s="14">
+        <f t="shared" si="4"/>
+        <v>6.9767441860465115E-2</v>
+      </c>
+      <c r="J22" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="13">
+        <f t="shared" si="5"/>
+        <v>8.3898404692959492</v>
+      </c>
+      <c r="M22" s="13">
+        <v>6</v>
+      </c>
+      <c r="N22" s="13">
+        <f t="shared" si="6"/>
+        <v>140.35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="13">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="C23" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="13">
+        <f>D$10+D$11*($M23-1)</f>
+        <v>14</v>
+      </c>
+      <c r="E23" s="13">
+        <v>1</v>
+      </c>
+      <c r="F23" s="13">
+        <f t="shared" si="0"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="G23" s="13">
+        <f t="shared" si="1"/>
+        <v>0.17061611374407581</v>
+      </c>
+      <c r="H23" s="13">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I23" s="14">
+        <f t="shared" si="4"/>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="J23" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <f t="shared" si="5"/>
+        <v>8.617477124507154</v>
+      </c>
+      <c r="M23" s="13">
+        <v>7</v>
+      </c>
+      <c r="N23" s="13">
+        <f t="shared" si="6"/>
+        <v>155.83999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="13">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="C24" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="13">
+        <f>D$10+D$11*($M24-1)</f>
+        <v>15</v>
+      </c>
+      <c r="E24" s="13">
+        <v>1</v>
+      </c>
+      <c r="F24" s="13">
+        <f t="shared" si="0"/>
+        <v>7.8999999999999995</v>
+      </c>
+      <c r="G24" s="13">
+        <f t="shared" si="1"/>
+        <v>0.18414918414918413</v>
+      </c>
+      <c r="H24" s="13">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="I24" s="14">
+        <f t="shared" si="4"/>
+        <v>7.8341013824884786E-2</v>
+      </c>
+      <c r="J24" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="13">
+        <f t="shared" si="5"/>
+        <v>8.8123088008561901</v>
+      </c>
+      <c r="M24" s="13">
+        <v>8</v>
+      </c>
+      <c r="N24" s="13">
+        <f t="shared" si="6"/>
+        <v>171.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="15">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="C25" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="15">
+        <v>16</v>
+      </c>
+      <c r="E25" s="15">
+        <v>1</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="0"/>
+        <v>8.6</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" si="1"/>
+        <v>0.19724770642201833</v>
+      </c>
+      <c r="H25" s="15">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I25" s="15">
+        <f t="shared" si="4"/>
+        <v>8.2568807339449546E-2</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="15">
+        <f t="shared" si="5"/>
+        <v>8.9808126410835225</v>
+      </c>
+      <c r="M25" s="15">
+        <v>9</v>
+      </c>
+      <c r="N25" s="15">
+        <f t="shared" si="6"/>
+        <v>187.18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="14">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="C26" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="14">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E26" s="13">
+        <v>1</v>
+      </c>
+      <c r="F26" s="14">
+        <f t="shared" si="0"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G26" s="14">
+        <f t="shared" si="1"/>
+        <v>0.20993227990970659</v>
+      </c>
+      <c r="H26" s="14">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="I26" s="14">
+        <f t="shared" si="4"/>
+        <v>8.6757990867579904E-2</v>
+      </c>
+      <c r="J26" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="13">
+        <f t="shared" si="5"/>
+        <v>9.1279152061296269</v>
+      </c>
+      <c r="M26" s="14">
+        <v>10</v>
+      </c>
+      <c r="N26" s="13">
+        <f t="shared" si="6"/>
+        <v>203.03</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="13">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="C27" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="13">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E27" s="13">
+        <v>1</v>
+      </c>
+      <c r="F27" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G27" s="13">
+        <f t="shared" si="1"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="H27" s="13">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I27" s="14">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="J27" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="13">
+        <f t="shared" si="5"/>
+        <v>9.2574257425742577</v>
+      </c>
+      <c r="M27" s="13">
+        <v>11</v>
+      </c>
+      <c r="N27" s="13">
+        <f t="shared" si="6"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="13">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="C28" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="13">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E28" s="13">
+        <v>1</v>
+      </c>
+      <c r="F28" s="13">
+        <f t="shared" si="0"/>
+        <v>10.7</v>
+      </c>
+      <c r="G28" s="13">
+        <f t="shared" si="1"/>
+        <v>0.23413566739606123</v>
+      </c>
+      <c r="H28" s="13">
+        <f t="shared" si="2"/>
+        <v>10.5</v>
+      </c>
+      <c r="I28" s="14">
+        <f t="shared" si="4"/>
+        <v>9.5022624434389136E-2</v>
+      </c>
+      <c r="J28" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="13">
+        <f t="shared" si="5"/>
+        <v>9.3723323406823162</v>
+      </c>
+      <c r="M28" s="13">
+        <v>12</v>
+      </c>
+      <c r="N28" s="13">
+        <f t="shared" si="6"/>
+        <v>235.08999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" s="15">
+        <f t="shared" si="0"/>
+        <v>194</v>
+      </c>
+      <c r="C29" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="15">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E29" s="15">
+        <v>1</v>
+      </c>
+      <c r="F29" s="15">
+        <f t="shared" si="0"/>
+        <v>11.399999999999999</v>
+      </c>
+      <c r="G29" s="15">
+        <f t="shared" si="1"/>
+        <v>0.24568965517241376</v>
+      </c>
+      <c r="H29" s="15">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I29" s="15">
+        <f t="shared" si="4"/>
+        <v>9.90990990990991E-2</v>
+      </c>
+      <c r="J29" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="15">
+        <f t="shared" si="5"/>
+        <v>9.4750090086672856</v>
+      </c>
+      <c r="M29" s="15">
+        <v>13</v>
+      </c>
+      <c r="N29" s="15">
+        <f t="shared" si="6"/>
+        <v>251.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="13">
+        <f t="shared" si="0"/>
+        <v>206</v>
+      </c>
+      <c r="C30" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="13">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E30" s="13">
+        <v>1</v>
+      </c>
+      <c r="F30" s="13">
+        <f t="shared" si="0"/>
+        <v>12.1</v>
+      </c>
+      <c r="G30" s="13">
+        <f t="shared" si="1"/>
+        <v>0.25690021231422505</v>
+      </c>
+      <c r="H30" s="13">
+        <f t="shared" si="2"/>
+        <v>11.5</v>
+      </c>
+      <c r="I30" s="14">
+        <f t="shared" si="4"/>
+        <v>0.1031390134529148</v>
+      </c>
+      <c r="J30" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="13">
+        <f t="shared" si="5"/>
+        <v>9.5673633878784692</v>
+      </c>
+      <c r="M30" s="13">
+        <v>14</v>
+      </c>
+      <c r="N30" s="13">
+        <f t="shared" si="6"/>
+        <v>267.63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="14">
+        <f t="shared" si="0"/>
+        <v>218</v>
+      </c>
+      <c r="C31" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="14">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E31" s="13">
+        <v>1</v>
+      </c>
+      <c r="F31" s="14">
+        <f t="shared" si="0"/>
+        <v>12.799999999999999</v>
+      </c>
+      <c r="G31" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26778242677824265</v>
+      </c>
+      <c r="H31" s="14">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I31" s="14">
+        <f t="shared" si="4"/>
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="J31" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="13">
+        <f t="shared" si="5"/>
+        <v>9.6509440203225676</v>
+      </c>
+      <c r="M31" s="14">
+        <v>15</v>
+      </c>
+      <c r="N31" s="13">
+        <f t="shared" si="6"/>
+        <v>284.08000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="14">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="C32" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="14">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E32" s="13">
+        <v>1</v>
+      </c>
+      <c r="F32" s="14">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="G32" s="14">
+        <f t="shared" si="1"/>
+        <v>0.27835051546391754</v>
+      </c>
+      <c r="H32" s="14">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+      <c r="I32" s="14">
+        <f t="shared" si="4"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J32" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="13">
+        <f t="shared" si="5"/>
+        <v>9.7270194986072411</v>
+      </c>
+      <c r="M32" s="14">
+        <v>16</v>
+      </c>
+      <c r="N32" s="13">
+        <f t="shared" si="6"/>
+        <v>300.64999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" s="15">
+        <f t="shared" ref="B33:D46" si="7">B$10+B$11*($M33-1)</f>
+        <v>242</v>
+      </c>
+      <c r="C33" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="15">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="E33" s="15">
+        <v>1</v>
+      </c>
+      <c r="F33" s="15">
+        <f t="shared" ref="F33:F46" si="8">F$10+F$11*($M33-1)</f>
+        <v>14.2</v>
+      </c>
+      <c r="G33" s="15">
+        <f t="shared" si="1"/>
+        <v>0.28861788617886175</v>
+      </c>
+      <c r="H33" s="15">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="I33" s="15">
+        <f t="shared" si="4"/>
+        <v>0.11504424778761062</v>
+      </c>
+      <c r="J33" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="15">
+        <f xml:space="preserve"> B33 / ((D33*(1-G33-I33) + D33*(G33)*1.5) * E33)</f>
+        <v>9.7966377156038646</v>
+      </c>
+      <c r="M33" s="15">
+        <v>17</v>
+      </c>
+      <c r="N33" s="15">
+        <f t="shared" si="6"/>
+        <v>317.33999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="AA37" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB37" s="25"/>
+      <c r="AC37" s="25"/>
+      <c r="AD37" s="25"/>
+      <c r="AE37" s="25"/>
+      <c r="AF37" s="25"/>
+      <c r="AG37" s="25"/>
+      <c r="AH37" s="25"/>
+      <c r="AI37" s="25"/>
+      <c r="AJ37" s="25"/>
+      <c r="AK37" s="25"/>
+      <c r="AL37" s="25"/>
+      <c r="AM37" s="25"/>
+      <c r="AN37" s="25"/>
+    </row>
+    <row r="38" spans="1:40" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="J38" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K38" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="L38" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="M38" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="N38" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA38" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB38" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC38" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD38" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE38" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF38" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG38" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH38" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI38" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ38" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK38" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL38" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM38" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="AN38" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" s="21">
+        <f>B$10+B$11*($M39-1)</f>
+        <v>50</v>
+      </c>
+      <c r="C39" s="21">
+        <f>C$10+C$11*($M39-1)</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="21">
+        <f>D$10+D$11*($M39-1)</f>
+        <v>8</v>
+      </c>
+      <c r="E39" s="21">
+        <v>1</v>
+      </c>
+      <c r="F39" s="21">
+        <f>F$10+F$11*($M39-1)</f>
+        <v>3</v>
+      </c>
+      <c r="G39" s="21">
+        <f>F39/(F39+35)</f>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H39" s="21">
+        <f>H$10+H$11*($M39-1)</f>
+        <v>5</v>
+      </c>
+      <c r="I39" s="21">
+        <f>H39/(H39+100)</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="J39" s="21">
+        <f t="shared" ref="J39:K43" si="9">J$10+J$11*($M39-1)</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="21">
+        <f xml:space="preserve"> B39 / ((D39*(1-G39-I39) + D39*(G39)*1.5) * E39)</f>
+        <v>6.3013265950726467</v>
+      </c>
+      <c r="M39" s="21">
+        <v>1</v>
+      </c>
+      <c r="N39" s="26">
+        <f xml:space="preserve"> (B39*$B$12 + D39*$D$12 + F39*$F$12 + H39*B39*0.01 ) * E39/3 * (1+ J39) * (1+K39)</f>
+        <v>21.566666666666666</v>
+      </c>
+      <c r="AA39" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB39" s="21">
+        <v>50</v>
+      </c>
+      <c r="AC39" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="21">
+        <v>8</v>
+      </c>
+      <c r="AE39" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF39" s="21">
+        <v>3</v>
+      </c>
+      <c r="AG39" s="21">
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="AH39" s="21">
+        <v>5</v>
+      </c>
+      <c r="AI39" s="21">
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="AJ39" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="21">
+        <v>2.1004421983575492</v>
+      </c>
+      <c r="AM39" s="21">
+        <v>1</v>
+      </c>
+      <c r="AN39" s="26">
+        <v>64.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40" s="21">
+        <f t="shared" ref="B40:C43" si="10">B$10+B$11*($M40-1)</f>
+        <v>86</v>
+      </c>
+      <c r="C40" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="21">
+        <v>11</v>
+      </c>
+      <c r="E40" s="21">
+        <v>1</v>
+      </c>
+      <c r="F40" s="21">
+        <f t="shared" ref="E40:F43" si="11">F$10+F$11*($M40-1)</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G40" s="21">
+        <f>F40/(F40+35)</f>
+        <v>0.12718204488778054</v>
+      </c>
+      <c r="H40" s="21">
+        <f>H$10+H$11*($M40-1)</f>
+        <v>6.5</v>
+      </c>
+      <c r="I40" s="21">
+        <f t="shared" ref="I40:I43" si="12">H40/(H40+100)</f>
+        <v>6.1032863849765258E-2</v>
+      </c>
+      <c r="J40" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="21">
+        <f t="shared" ref="L40:L43" si="13" xml:space="preserve"> B40 / ((D40*(1-G40-I40) + D40*(G40)*1.5) * E40)</f>
+        <v>7.7982327021757607</v>
+      </c>
+      <c r="M40" s="21">
+        <v>4</v>
+      </c>
+      <c r="N40" s="26">
+        <f t="shared" ref="N40:N43" si="14" xml:space="preserve"> (B40*$B$12 + D40*$D$12 + F40*$F$12 + H40*B40*0.01 ) * E40/3 * (1+ J40) * (1+K40)</f>
+        <v>36.576666666666668</v>
+      </c>
+      <c r="AA40" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB40" s="21">
+        <v>98</v>
+      </c>
+      <c r="AC40" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="21">
+        <v>9</v>
+      </c>
+      <c r="AE40" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF40" s="21">
+        <v>5.8</v>
+      </c>
+      <c r="AG40" s="21">
+        <v>0.14215686274509803</v>
+      </c>
+      <c r="AH40" s="21">
+        <v>7</v>
+      </c>
+      <c r="AI40" s="21">
+        <v>6.5420560747663545E-2</v>
+      </c>
+      <c r="AJ40" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="21">
+        <v>3.6092091909689796</v>
+      </c>
+      <c r="AM40" s="21">
+        <v>5</v>
+      </c>
+      <c r="AN40" s="26">
+        <v>121.98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B41" s="21">
+        <f t="shared" si="10"/>
+        <v>146</v>
+      </c>
+      <c r="C41" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="21">
+        <v>16</v>
+      </c>
+      <c r="E41" s="21">
+        <v>1</v>
+      </c>
+      <c r="F41" s="21">
+        <f t="shared" si="11"/>
+        <v>8.6</v>
+      </c>
+      <c r="G41" s="21">
+        <f>F41/(F41+35)</f>
+        <v>0.19724770642201833</v>
+      </c>
+      <c r="H41" s="21">
+        <f>H$10+H$11*($M41-1)</f>
+        <v>9</v>
+      </c>
+      <c r="I41" s="21">
+        <f t="shared" si="12"/>
+        <v>8.2568807339449546E-2</v>
+      </c>
+      <c r="J41" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="21">
+        <f t="shared" si="13"/>
+        <v>8.9808126410835225</v>
+      </c>
+      <c r="M41" s="21">
+        <v>9</v>
+      </c>
+      <c r="N41" s="26">
+        <f t="shared" si="14"/>
+        <v>62.393333333333338</v>
+      </c>
+      <c r="AA41" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB41" s="21">
+        <v>146</v>
+      </c>
+      <c r="AC41" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="21">
+        <v>14</v>
+      </c>
+      <c r="AE41" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF41" s="21">
+        <v>8.6</v>
+      </c>
+      <c r="AG41" s="21">
+        <v>0.19724770642201833</v>
+      </c>
+      <c r="AH41" s="21">
+        <v>9</v>
+      </c>
+      <c r="AI41" s="21">
+        <v>8.2568807339449546E-2</v>
+      </c>
+      <c r="AJ41" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="21">
+        <v>3.4212619585080088</v>
+      </c>
+      <c r="AM41" s="21">
+        <v>9</v>
+      </c>
+      <c r="AN41" s="26">
+        <v>185.17999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A42" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B42" s="21">
+        <f t="shared" si="10"/>
+        <v>194</v>
+      </c>
+      <c r="C42" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="21">
+        <f>D$10+D$11*($M42-1)</f>
+        <v>20</v>
+      </c>
+      <c r="E42" s="21">
+        <v>1</v>
+      </c>
+      <c r="F42" s="21">
+        <f t="shared" si="11"/>
+        <v>11.399999999999999</v>
+      </c>
+      <c r="G42" s="21">
+        <f>F42/(F42+35)</f>
+        <v>0.24568965517241376</v>
+      </c>
+      <c r="H42" s="21">
+        <f>H$10+H$11*($M42-1)</f>
+        <v>11</v>
+      </c>
+      <c r="I42" s="21">
+        <f t="shared" si="12"/>
+        <v>9.90990990990991E-2</v>
+      </c>
+      <c r="J42" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="21">
+        <f t="shared" si="13"/>
+        <v>9.4750090086672856</v>
+      </c>
+      <c r="M42" s="21">
+        <v>13</v>
+      </c>
+      <c r="N42" s="26">
+        <f t="shared" si="14"/>
+        <v>83.766666666666666</v>
+      </c>
+      <c r="AA42" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB42" s="21">
+        <v>194</v>
+      </c>
+      <c r="AC42" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="21">
+        <v>20</v>
+      </c>
+      <c r="AE42" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF42" s="21">
+        <v>11.399999999999999</v>
+      </c>
+      <c r="AG42" s="21">
+        <v>0.24568965517241376</v>
+      </c>
+      <c r="AH42" s="21">
+        <v>11</v>
+      </c>
+      <c r="AI42" s="21">
+        <v>9.90990990990991E-2</v>
+      </c>
+      <c r="AJ42" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="21">
+        <v>3.1583363362224284</v>
+      </c>
+      <c r="AM42" s="21">
+        <v>13</v>
+      </c>
+      <c r="AN42" s="26">
+        <v>251.30000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" s="21">
+        <f t="shared" si="10"/>
+        <v>242</v>
+      </c>
+      <c r="C43" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D43" s="21">
+        <f>D$10+D$11*($M43-1)</f>
+        <v>24</v>
+      </c>
+      <c r="E43" s="21">
+        <v>1</v>
+      </c>
+      <c r="F43" s="21">
+        <f t="shared" si="11"/>
+        <v>14.2</v>
+      </c>
+      <c r="G43" s="21">
+        <f>F43/(F43+35)</f>
+        <v>0.28861788617886175</v>
+      </c>
+      <c r="H43" s="21">
+        <f>H$10+H$11*($M43-1)</f>
+        <v>13</v>
+      </c>
+      <c r="I43" s="21">
+        <f t="shared" si="12"/>
+        <v>0.11504424778761062</v>
+      </c>
+      <c r="J43" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="21">
+        <f t="shared" si="13"/>
+        <v>9.7966377156038646</v>
+      </c>
+      <c r="M43" s="21">
+        <v>17</v>
+      </c>
+      <c r="N43" s="26">
+        <f t="shared" si="14"/>
+        <v>105.77999999999999</v>
+      </c>
+      <c r="AA43" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB43" s="21">
+        <v>242</v>
+      </c>
+      <c r="AC43" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="21">
+        <v>24</v>
+      </c>
+      <c r="AE43" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF43" s="21">
+        <v>14.2</v>
+      </c>
+      <c r="AG43" s="21">
+        <v>0.28861788617886175</v>
+      </c>
+      <c r="AH43" s="21">
+        <v>13</v>
+      </c>
+      <c r="AI43" s="21">
+        <v>0.11504424778761062</v>
+      </c>
+      <c r="AJ43" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="21">
+        <v>3.2655459052012881</v>
+      </c>
+      <c r="AM43" s="21">
+        <v>17</v>
+      </c>
+      <c r="AN43" s="26">
+        <v>317.33999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A15:N15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>